--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr2_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr2_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="16.24609375" customWidth="true"/>
-    <col min="4" max="4" width="16.24609375" customWidth="true"/>
+    <col min="3" max="3" width="14.64453125" customWidth="true"/>
+    <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="6" max="6" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="16.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="9" max="9" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.77734375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.27452812407356508</v>
+        <v>0.27969911821438287</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.27156416737946659</v>
+        <v>0.2655875520384734</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-5.3069526912566181e-05</v>
+        <v>-0.0058229206058127165</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00014934521523564745</v>
+        <v>-0.00012633095045147728</v>
       </c>
       <c r="F3" s="0">
-        <v>-9.5727972301328982e-05</v>
+        <v>-0.00032941540202095516</v>
       </c>
       <c r="G3" s="0">
-        <v>5.5601351673842342e-05</v>
+        <v>2.6414887691178154e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.2943908548715365e-06</v>
+        <v>3.0229189522706971e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>2.3359132201178239e-05</v>
+        <v>0.00011344657548067139</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-6.0959362508383741e-05</v>
+        <v>-0.0012836117609235087</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29297946819910697</v>
+        <v>0.28531219952681108</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0032559187216966994</v>
+        <v>0.0093588790026911412</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.1333901827808479e-06</v>
+        <v>-1.5276321628981893e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>-1.1418863075884903e-05</v>
+        <v>2.5595519748189166e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-7.5896809050044673e-06</v>
+        <v>0.00012845284186148754</v>
       </c>
       <c r="I4" s="0">
-        <v>0.00022607383554177341</v>
+        <v>0.001243145717058642</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00034195098826074092</v>
+        <v>0.0028950237724057163</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.0551055825369637e-05</v>
+        <v>-1.9318440068638587e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.30390542428671169</v>
+        <v>0.28459927089886644</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00074985400574594711</v>
+        <v>-0.0029513118892265998</v>
       </c>
       <c r="E5" s="0">
-        <v>4.8924080641172196e-06</v>
+        <v>-0.00099921830970697021</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00063759972730454133</v>
+        <v>0.0018505314454827766</v>
       </c>
       <c r="G5" s="0">
-        <v>8.7485870289140456e-05</v>
+        <v>-0.00040011498433945025</v>
       </c>
       <c r="H5" s="0">
-        <v>-4.1237314882729203e-05</v>
+        <v>0.00014122873237022289</v>
       </c>
       <c r="I5" s="0">
-        <v>0.00018437214429735616</v>
+        <v>5.3309776380315791e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00058326862210433816</v>
+        <v>0.00092517849950668474</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.30562261865386592</v>
+        <v>0.31584605265311821</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.00028463855347077901</v>
+        <v>0.0025305957430380444</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-9.1428915052799733e-06</v>
+        <v>3.8759816041941682e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-6.0682799851392746e-05</v>
+        <v>0.00022406118545261833</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-6.8888319318238621e-05</v>
+        <v>9.73104586522687e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00042926407598941344</v>
+        <v>-0.0023938677410239909</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>1.5222998202224503e-05</v>
+        <v>5.6178625010283589e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29865418415712386</v>
+        <v>0.31694649377392781</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0009871898631996453</v>
+        <v>-0.0038921496079333318</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00033775220843463308</v>
+        <v>-0.00040073722202218023</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00060893390135524877</v>
+        <v>0.0015202690484115359</v>
       </c>
       <c r="G7" s="0">
-        <v>-6.9552738584364591e-06</v>
+        <v>0.0034558759983913897</v>
       </c>
       <c r="H7" s="0">
-        <v>1.9144044469079173e-06</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-9.1606654497318582e-06</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.002079022056249491</v>
+        <v>-0.0004086192395449384</v>
       </c>
     </row>
     <row r="8">
